--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1841.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1841.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.069757244529422</v>
+        <v>1.441518425941467</v>
       </c>
       <c r="B1">
-        <v>1.144196124014336</v>
+        <v>3.3918616771698</v>
       </c>
       <c r="C1">
-        <v>1.132086747529734</v>
+        <v>4.309640884399414</v>
       </c>
       <c r="D1">
-        <v>1.448934508937036</v>
+        <v>2.128627300262451</v>
       </c>
       <c r="E1">
-        <v>2.282303560893309</v>
+        <v>0.7490930557250977</v>
       </c>
     </row>
   </sheetData>
